--- a/Reading/超简单用Python让excel飞起来/Code/Excel/NameBook.xlsx
+++ b/Reading/超简单用Python让excel飞起来/Code/Excel/NameBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\2019-2020\Python\code\Reading\超简单用Python让excel飞起来\Code\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{133E579C-5107-4940-8B1A-D70731A33EE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329C2FFB-2348-43B6-9005-6EA3193341FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15252" windowHeight="8616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Names</t>
   </si>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Female</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -464,13 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -491,71 +497,71 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
         <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
